--- a/data/transmembrane/Book1.xlsx
+++ b/data/transmembrane/Book1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junjie\Desktop\lab\work\Myfile\structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junji\Myworkspace\Mylabwork\data\transmembrane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2CA843-B3B1-40EC-AA17-B506A90ABFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{6E36AE04-FC1A-4F4D-8CE2-5E5E550EFFBD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +20,10 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="48">
   <si>
     <t>protein</t>
   </si>
@@ -173,16 +174,22 @@
     <t>CACNG5b</t>
   </si>
   <si>
-    <t>CACNG6a</t>
-  </si>
-  <si>
-    <t>CACNG6b</t>
+    <t>CACNG7</t>
+  </si>
+  <si>
+    <t>CACNG8</t>
+  </si>
+  <si>
+    <t>TMEM114</t>
+  </si>
+  <si>
+    <t>TMEM235</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -533,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E57A386-B43B-4FB3-986D-7F6D00DD903B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -1178,8 +1185,129 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>642</v>
+      </c>
+      <c r="D2">
+        <v>1313</v>
+      </c>
+      <c r="E2">
+        <v>187</v>
+      </c>
+      <c r="F2">
+        <v>267</v>
+      </c>
+      <c r="G2">
+        <v>404</v>
+      </c>
+      <c r="H2">
+        <v>653</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>27</v>
+      </c>
+      <c r="L2">
+        <v>97</v>
+      </c>
+      <c r="M2">
+        <v>119</v>
+      </c>
+      <c r="N2">
+        <v>126</v>
+      </c>
+      <c r="O2">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC7DF93-D7BE-4715-8706-11E5BAE8364A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -1824,7 +1952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6577E3-B572-462B-BBA9-546CB7D62D51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2416,7 +2544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B238E57-B8B4-4E7C-A4CD-2025B0672AAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2870,7 +2998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3137C88E-261B-4365-A05B-10B967FE893C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3403,11 +3531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502F0E8A-BD65-402B-BFDE-0B51E439EFF4}">
-  <dimension ref="A1:S8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:Q5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3473,174 +3601,142 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>1242</v>
+      </c>
+      <c r="D2">
+        <v>2024</v>
+      </c>
+      <c r="E2">
+        <v>329</v>
+      </c>
+      <c r="F2">
+        <v>403</v>
+      </c>
+      <c r="G2">
+        <v>540</v>
+      </c>
+      <c r="J2">
+        <v>41</v>
+      </c>
+      <c r="K2">
+        <v>63</v>
+      </c>
+      <c r="L2">
+        <v>141</v>
+      </c>
+      <c r="M2">
+        <v>163</v>
+      </c>
+      <c r="N2">
+        <v>173</v>
+      </c>
+      <c r="O2">
+        <v>192</v>
+      </c>
+      <c r="P2">
+        <v>221</v>
+      </c>
+      <c r="Q2">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>783</v>
+      </c>
+      <c r="E3">
+        <v>329</v>
+      </c>
+      <c r="F3">
+        <v>403</v>
+      </c>
+      <c r="G3">
+        <v>540</v>
+      </c>
+      <c r="J3">
+        <v>41</v>
+      </c>
+      <c r="K3">
+        <v>63</v>
+      </c>
+      <c r="L3">
+        <v>141</v>
+      </c>
+      <c r="M3">
+        <v>163</v>
+      </c>
+      <c r="N3">
+        <v>170</v>
+      </c>
+      <c r="O3">
+        <v>192</v>
+      </c>
+      <c r="P3">
+        <v>224</v>
+      </c>
+      <c r="Q3">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>1242</v>
-      </c>
-      <c r="D6">
-        <v>2024</v>
-      </c>
-      <c r="E6">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>783</v>
+      </c>
+      <c r="E4">
         <v>329</v>
       </c>
-      <c r="F6">
+      <c r="F4">
         <v>403</v>
       </c>
-      <c r="G6">
+      <c r="G4">
         <v>540</v>
       </c>
-      <c r="J6">
+      <c r="J4">
         <v>41</v>
       </c>
-      <c r="K6">
+      <c r="K4">
         <v>63</v>
       </c>
-      <c r="L6">
+      <c r="L4">
         <v>141</v>
       </c>
-      <c r="M6">
+      <c r="M4">
         <v>163</v>
       </c>
-      <c r="N6">
-        <v>173</v>
-      </c>
-      <c r="O6">
+      <c r="N4">
+        <v>170</v>
+      </c>
+      <c r="O4">
         <v>192</v>
       </c>
-      <c r="P6">
-        <v>221</v>
-      </c>
-      <c r="Q6">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>783</v>
-      </c>
-      <c r="E7">
-        <v>329</v>
-      </c>
-      <c r="F7">
-        <v>403</v>
-      </c>
-      <c r="G7">
-        <v>540</v>
-      </c>
-      <c r="J7">
-        <v>41</v>
-      </c>
-      <c r="K7">
-        <v>63</v>
-      </c>
-      <c r="L7">
-        <v>141</v>
-      </c>
-      <c r="M7">
-        <v>163</v>
-      </c>
-      <c r="N7">
-        <v>170</v>
-      </c>
-      <c r="O7">
-        <v>192</v>
-      </c>
-      <c r="P7">
-        <v>224</v>
-      </c>
-      <c r="Q7">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>783</v>
-      </c>
-      <c r="E8">
-        <v>329</v>
-      </c>
-      <c r="F8">
-        <v>403</v>
-      </c>
-      <c r="G8">
-        <v>540</v>
-      </c>
-      <c r="J8">
-        <v>41</v>
-      </c>
-      <c r="K8">
-        <v>63</v>
-      </c>
-      <c r="L8">
-        <v>141</v>
-      </c>
-      <c r="M8">
-        <v>163</v>
-      </c>
-      <c r="N8">
-        <v>170</v>
-      </c>
-      <c r="O8">
-        <v>192</v>
-      </c>
-      <c r="P8">
+      <c r="P4">
         <v>219</v>
       </c>
-      <c r="Q8">
+      <c r="Q4">
         <v>241</v>
       </c>
     </row>
@@ -3650,11 +3746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E7B75E-67B1-4DAE-B3F5-D68D83AE2D2D}">
-  <dimension ref="A1:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3720,191 +3816,151 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>270</v>
+      </c>
+      <c r="D2">
+        <v>1097</v>
+      </c>
+      <c r="E2">
+        <v>193</v>
+      </c>
+      <c r="F2">
+        <v>279</v>
+      </c>
+      <c r="G2">
+        <v>419</v>
+      </c>
+      <c r="H2">
+        <v>564</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>34</v>
+      </c>
+      <c r="L2">
+        <v>101</v>
+      </c>
+      <c r="M2">
+        <v>123</v>
+      </c>
+      <c r="N2">
+        <v>130</v>
+      </c>
+      <c r="O2">
+        <v>152</v>
+      </c>
+      <c r="P2">
+        <v>179</v>
+      </c>
+      <c r="Q2">
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>828</v>
+      </c>
+      <c r="E3">
+        <v>194</v>
+      </c>
+      <c r="F3">
+        <v>280</v>
+      </c>
+      <c r="G3">
+        <v>420</v>
+      </c>
+      <c r="H3">
+        <v>565</v>
+      </c>
+      <c r="J3">
         <v>12</v>
+      </c>
+      <c r="K3">
+        <v>34</v>
+      </c>
+      <c r="L3">
+        <v>101</v>
+      </c>
+      <c r="M3">
+        <v>123</v>
+      </c>
+      <c r="N3">
+        <v>130</v>
+      </c>
+      <c r="O3">
+        <v>152</v>
+      </c>
+      <c r="P3">
+        <v>179</v>
+      </c>
+      <c r="Q3">
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>242</v>
+      </c>
+      <c r="D4">
+        <v>1069</v>
+      </c>
+      <c r="E4">
+        <v>193</v>
+      </c>
+      <c r="F4">
+        <v>279</v>
+      </c>
+      <c r="G4">
+        <v>419</v>
+      </c>
+      <c r="H4">
+        <v>564</v>
+      </c>
+      <c r="J4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>270</v>
-      </c>
-      <c r="D7">
-        <v>1097</v>
-      </c>
-      <c r="E7">
-        <v>193</v>
-      </c>
-      <c r="F7">
-        <v>279</v>
-      </c>
-      <c r="G7">
-        <v>419</v>
-      </c>
-      <c r="H7">
-        <v>564</v>
-      </c>
-      <c r="J7">
-        <v>12</v>
-      </c>
-      <c r="K7">
+      <c r="K4">
         <v>34</v>
       </c>
-      <c r="L7">
+      <c r="L4">
         <v>101</v>
       </c>
-      <c r="M7">
+      <c r="M4">
         <v>123</v>
       </c>
-      <c r="N7">
+      <c r="N4">
         <v>130</v>
       </c>
-      <c r="O7">
+      <c r="O4">
         <v>152</v>
       </c>
-      <c r="P7">
+      <c r="P4">
         <v>179</v>
       </c>
-      <c r="Q7">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>828</v>
-      </c>
-      <c r="E8">
-        <v>194</v>
-      </c>
-      <c r="F8">
-        <v>280</v>
-      </c>
-      <c r="G8">
-        <v>420</v>
-      </c>
-      <c r="H8">
-        <v>565</v>
-      </c>
-      <c r="J8">
-        <v>12</v>
-      </c>
-      <c r="K8">
-        <v>34</v>
-      </c>
-      <c r="L8">
-        <v>101</v>
-      </c>
-      <c r="M8">
-        <v>123</v>
-      </c>
-      <c r="N8">
-        <v>130</v>
-      </c>
-      <c r="O8">
-        <v>152</v>
-      </c>
-      <c r="P8">
-        <v>179</v>
-      </c>
-      <c r="Q8">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>242</v>
-      </c>
-      <c r="D9">
-        <v>1069</v>
-      </c>
-      <c r="E9">
-        <v>193</v>
-      </c>
-      <c r="F9">
-        <v>279</v>
-      </c>
-      <c r="G9">
-        <v>419</v>
-      </c>
-      <c r="H9">
-        <v>564</v>
-      </c>
-      <c r="J9">
-        <v>12</v>
-      </c>
-      <c r="K9">
-        <v>34</v>
-      </c>
-      <c r="L9">
-        <v>101</v>
-      </c>
-      <c r="M9">
-        <v>123</v>
-      </c>
-      <c r="N9">
-        <v>130</v>
-      </c>
-      <c r="O9">
-        <v>152</v>
-      </c>
-      <c r="P9">
-        <v>179</v>
-      </c>
-      <c r="Q9">
+      <c r="Q4">
         <v>201</v>
       </c>
     </row>
@@ -3914,14 +3970,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BD9F31-5FB6-4231-B251-4D5FA034AE59}">
-  <dimension ref="A1:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3984,183 +4050,267 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>207</v>
+      </c>
+      <c r="D2">
+        <v>1484</v>
+      </c>
+      <c r="E2">
+        <v>281</v>
+      </c>
+      <c r="F2">
+        <v>364</v>
+      </c>
+      <c r="G2">
+        <v>504</v>
+      </c>
+      <c r="J2">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+      <c r="L2">
+        <v>130</v>
+      </c>
+      <c r="M2">
+        <v>152</v>
+      </c>
+      <c r="N2">
+        <v>159</v>
+      </c>
+      <c r="O2">
+        <v>181</v>
+      </c>
+      <c r="P2">
+        <v>206</v>
+      </c>
+      <c r="Q2">
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1266</v>
+      </c>
+      <c r="E3">
+        <v>278</v>
+      </c>
+      <c r="F3">
+        <v>361</v>
+      </c>
+      <c r="G3">
+        <v>501</v>
+      </c>
+      <c r="J3">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>40</v>
+      </c>
+      <c r="L3">
+        <v>129</v>
+      </c>
+      <c r="M3">
+        <v>151</v>
+      </c>
+      <c r="N3">
+        <v>158</v>
+      </c>
+      <c r="O3">
+        <v>180</v>
+      </c>
+      <c r="P3">
+        <v>205</v>
+      </c>
+      <c r="Q3">
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>184</v>
+      </c>
+      <c r="D4">
+        <v>1455</v>
+      </c>
+      <c r="E4">
+        <v>278</v>
+      </c>
+      <c r="F4">
+        <v>361</v>
+      </c>
+      <c r="G4">
+        <v>501</v>
+      </c>
+      <c r="J4">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <v>129</v>
+      </c>
+      <c r="M4">
+        <v>151</v>
+      </c>
+      <c r="N4">
+        <v>158</v>
+      </c>
+      <c r="O4">
+        <v>180</v>
+      </c>
+      <c r="P4">
+        <v>205</v>
+      </c>
+      <c r="Q4">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C7">
-        <v>207</v>
-      </c>
-      <c r="D7">
-        <v>1484</v>
-      </c>
-      <c r="E7">
-        <v>281</v>
-      </c>
-      <c r="F7">
-        <v>364</v>
-      </c>
-      <c r="G7">
-        <v>504</v>
-      </c>
-      <c r="J7">
-        <v>21</v>
-      </c>
-      <c r="K7">
-        <v>40</v>
-      </c>
-      <c r="L7">
-        <v>130</v>
-      </c>
-      <c r="M7">
-        <v>152</v>
-      </c>
-      <c r="N7">
-        <v>159</v>
-      </c>
-      <c r="O7">
-        <v>181</v>
-      </c>
-      <c r="P7">
-        <v>206</v>
-      </c>
-      <c r="Q7">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1266</v>
-      </c>
-      <c r="E8">
-        <v>278</v>
-      </c>
-      <c r="F8">
-        <v>361</v>
-      </c>
-      <c r="G8">
-        <v>501</v>
-      </c>
-      <c r="J8">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>40</v>
-      </c>
-      <c r="L8">
+      <c r="C2">
+        <v>674</v>
+      </c>
+      <c r="D2">
+        <v>1345</v>
+      </c>
+      <c r="E2">
+        <v>218</v>
+      </c>
+      <c r="F2">
+        <v>298</v>
+      </c>
+      <c r="G2">
+        <v>435</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>27</v>
+      </c>
+      <c r="L2">
+        <v>107</v>
+      </c>
+      <c r="M2">
         <v>129</v>
       </c>
-      <c r="M8">
-        <v>151</v>
-      </c>
-      <c r="N8">
-        <v>158</v>
-      </c>
-      <c r="O8">
-        <v>180</v>
-      </c>
-      <c r="P8">
-        <v>205</v>
-      </c>
-      <c r="Q8">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>184</v>
-      </c>
-      <c r="D9">
-        <v>1455</v>
-      </c>
-      <c r="E9">
-        <v>278</v>
-      </c>
-      <c r="F9">
-        <v>361</v>
-      </c>
-      <c r="G9">
-        <v>501</v>
-      </c>
-      <c r="J9">
-        <v>21</v>
-      </c>
-      <c r="K9">
-        <v>40</v>
-      </c>
-      <c r="L9">
-        <v>129</v>
-      </c>
-      <c r="M9">
-        <v>151</v>
-      </c>
-      <c r="N9">
-        <v>158</v>
-      </c>
-      <c r="O9">
-        <v>180</v>
-      </c>
-      <c r="P9">
-        <v>205</v>
-      </c>
-      <c r="Q9">
-        <v>227</v>
+      <c r="N2">
+        <v>134</v>
+      </c>
+      <c r="O2">
+        <v>156</v>
+      </c>
+      <c r="P2">
+        <v>187</v>
+      </c>
+      <c r="Q2">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
